--- a/po_analysis_by_asin/B09SMZ7WBL_po_data.xlsx
+++ b/po_analysis_by_asin/B09SMZ7WBL_po_data.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
